--- a/PlaywrightFromScratch/target/test-classes/testdata/testdata.xlsx
+++ b/PlaywrightFromScratch/target/test-classes/testdata/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91809\git\playwrightFromScratchPractice\PlaywrightFromScratch\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E1CA89-1F78-4864-B8CF-220B6ABD9408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4494C5-BC79-46D0-8A2B-1E18D5A73934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,10 +373,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
